--- a/Data/Luminairies/Luminaires.xlsx
+++ b/Data/Luminairies/Luminaires.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightingcdmx\Data\Luminairies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightcdmx\Data\Luminairies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F43B70-3F1C-4598-BD32-CB030EC8678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5159B54-B93B-4FFA-A4E3-F7690CEDF841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BA5EDA5-E2E0-4933-AC19-163B4C68C052}"/>
   </bookViews>
   <sheets>
     <sheet name="Luminaires" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -43,9 +56,6 @@
     <t>Cuadernos estadísticos delegacionales</t>
   </si>
   <si>
-    <t>https://www.inegi.org.mx/app/biblioteca/ficha.html?upc=702825933067</t>
-  </si>
-  <si>
     <t>https://www.inegi.org.mx/app/biblioteca/ficha.html?upc=702825000421</t>
   </si>
   <si>
@@ -86,13 +96,103 @@
   </si>
   <si>
     <t>Programa Ilumina tu Ciudad (CO2 reduction)</t>
+  </si>
+  <si>
+    <t>Alumbrado eléctrico (incandescente)</t>
+  </si>
+  <si>
+    <t>Transición a halogenuros metálicos</t>
+  </si>
+  <si>
+    <t>Transición a LED</t>
+  </si>
+  <si>
+    <t>Sheinbaum</t>
+  </si>
+  <si>
+    <t>Mancera</t>
+  </si>
+  <si>
+    <t>Ebrard</t>
+  </si>
+  <si>
+    <t>Obrador</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>Uruchurtu</t>
+  </si>
+  <si>
+    <t>Rojo Gómez</t>
+  </si>
+  <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Gasca</t>
+  </si>
+  <si>
+    <t>Landa y Escandón</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>Rebollar</t>
+  </si>
+  <si>
+    <t>Cevallos</t>
+  </si>
+  <si>
+    <t>Villar y Bocanegra</t>
+  </si>
+  <si>
+    <t>Azcárate</t>
+  </si>
+  <si>
+    <t>Revillagigedo</t>
+  </si>
+  <si>
+    <t>Transición a halogenuros metálicos con tubo de cuarzo</t>
+  </si>
+  <si>
+    <t>Laboratorio de Alumbrado</t>
+  </si>
+  <si>
+    <t>Interpolación lineal</t>
+  </si>
+  <si>
+    <t>Nota:1 luminaria cada 10 personas</t>
+  </si>
+  <si>
+    <t>https://www.portalpolitico.tv/metropoli/anuncia-mancera-programa-ilumina-tu-ciudad-que-impulsara-alumbrado-publico-de-excelencia-y https://www.sinembargo.mx/1283469/iluminemos-tu-ciudad-el-mayor-programa-del-gdf-se-apaga-por-presunta-corrupcion/</t>
+  </si>
+  <si>
+    <t>https://www.inegi.org.mx/app/biblioteca/ficha.html?upc=702825933067 https://paot.org.mx/centro/gaceta/2001/2001_diciembre_04_141.pdf?b=po</t>
+  </si>
+  <si>
+    <t>Interpolación lineal https://www.fayerwayer.com/2012/04/mexico-el-gobierno-del-distrito-federal-presenta-el-primer-edificio-publico-autosustentable/#google_vignette https://blogingenieria.com/general/laboratorio-de-alumbrado-autosustentable/  https://lasillarota.com/metropoli/2013/12/7/la-cdmx-con-el-unico-laboratorio-de-alumbrado-publico-del-pais-44342.html</t>
+  </si>
+  <si>
+    <t>Dato 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +327,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +531,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +741,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -586,16 +784,32 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -629,6 +843,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -641,6 +856,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF009999"/>
+      <color rgb="FF99FF33"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFCCFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -940,25 +1164,46 @@
                   <c:v>340406</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>340406</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>400000</c:v>
+                  <c:v>354665.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>368924.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>383184.20000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>397443.60000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>411703.00000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>425962.40000000014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>440221.80000000016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>454481.20000000019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>468740.60000000021</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>483000</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>432724</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>483000</c:v>
+                <c:pt idx="36">
+                  <c:v>521446</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>521446</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>531217</c:v>
+                  <c:v>521446</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>512760</c:v>
@@ -1732,16 +1977,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589817</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116499</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>93418</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2086,19 +2331,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3B844E-1BEF-4F13-A0B2-A2607B3DA50A}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="93" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2115,555 +2363,738 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1790</v>
       </c>
       <c r="B2" s="1">
         <v>1128</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1850</v>
       </c>
       <c r="B3" s="1">
         <v>1240</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1863</v>
       </c>
       <c r="B4" s="1">
         <v>1914</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="E4">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>1886</v>
       </c>
       <c r="B5" s="1">
         <v>1931</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>1890</v>
       </c>
       <c r="B6" s="1">
         <v>2271</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="E6">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1897</v>
       </c>
       <c r="B7" s="1">
         <v>2581</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>1900</v>
       </c>
       <c r="B8" s="1">
         <v>1075</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>1907</v>
       </c>
       <c r="B9" s="1">
         <v>1154</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="E9">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>1922</v>
       </c>
       <c r="B10" s="1">
         <v>3131</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="E10">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>1928</v>
       </c>
       <c r="B11" s="1">
         <v>8881</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>1936</v>
       </c>
       <c r="B12" s="1">
         <v>10236</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="E12">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>1937</v>
       </c>
       <c r="B13" s="1">
         <v>11627</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>1942</v>
       </c>
       <c r="B14" s="1">
         <v>12942</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="E14">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>1952</v>
       </c>
       <c r="B15" s="1">
         <v>35000</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="E15">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>1955</v>
       </c>
       <c r="B16" s="1">
         <v>40407</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="E16">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>1964</v>
       </c>
       <c r="B17" s="1">
         <v>151897</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="E17">
         <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>1968</v>
       </c>
       <c r="B18" s="1">
         <v>166445</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>1977</v>
       </c>
       <c r="B19" s="1">
         <v>253497</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="E19">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>1980</v>
       </c>
       <c r="B20" s="1">
         <v>275779</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="E20">
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>1991</v>
       </c>
       <c r="B21" s="1">
         <v>325000</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="E21">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>2000</v>
       </c>
       <c r="B22" s="1">
         <v>340305</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
+      <c r="D22" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="E22">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>2001</v>
       </c>
       <c r="B23" s="1">
         <v>340305</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>2002</v>
       </c>
       <c r="B24" s="1">
         <v>340046</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>4.7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>2003</v>
       </c>
       <c r="B25" s="1">
         <v>340406</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>4.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>2004</v>
       </c>
       <c r="B26" s="1">
         <v>340406</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
+      <c r="D26" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="E26">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G26" s="1">
+        <f>B36-B26</f>
+        <v>142594</v>
+      </c>
+      <c r="H26">
+        <f>G26/G27</f>
+        <v>14259.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>2005</v>
       </c>
       <c r="B27" s="1">
-        <v>340406</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+        <f>B26+H26</f>
+        <v>354665.4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27">
+        <f>A36-A26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>2006</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="B28" s="1">
+        <f>B27+H26</f>
+        <v>368924.80000000005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>2007</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="B29" s="1">
+        <f>B28+H26</f>
+        <v>383184.20000000007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>2008</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="B30" s="1">
+        <f>B29+H26</f>
+        <v>397443.60000000009</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>2009</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="B31" s="1">
+        <f>B30+H26</f>
+        <v>411703.00000000012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>2010</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="B32" s="1">
+        <f>B31+H26</f>
+        <v>425962.40000000014</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>2011</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="B33" s="1">
+        <f>B32+H26</f>
+        <v>440221.80000000016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>2012</v>
       </c>
-      <c r="B34">
-        <v>400000</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="B34" s="1">
+        <f>B33+H26</f>
+        <v>454481.20000000019</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>2013</v>
       </c>
-      <c r="B35">
-        <v>400000</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="B35" s="1">
+        <f>B34+H26</f>
+        <v>468740.60000000021</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>2014</v>
       </c>
       <c r="B36" s="1">
+        <v>483000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B37" s="1">
         <v>432724</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B37" s="1">
-        <v>483000</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>2016</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="B38" s="1">
+        <v>521446</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>2017</v>
       </c>
       <c r="B39" s="1">
         <v>521446</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>2018</v>
       </c>
       <c r="B40" s="1">
-        <v>531217</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+        <v>521446</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>2019</v>
       </c>
       <c r="B41" s="1">
         <v>512760</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>2020</v>
       </c>
       <c r="B42" s="1">
         <v>589416</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>2021</v>
       </c>
       <c r="B43" s="1">
         <v>607932</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
+      <c r="C43" t="s">
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>2022</v>
       </c>
       <c r="B44" s="1">
         <v>761405</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
+      <c r="C44" t="s">
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>2023</v>
       </c>
       <c r="B45" s="1">
         <v>890843</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{75DACAFE-A9FE-4C40-840B-EF377CB9CC0B}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.inegi.org.mx/app/biblioteca/ficha.html?upc=702825933067" xr:uid="{962F8CA9-EFDF-43B4-B3D5-DA26B3F29E39}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>